--- a/documents/drafts/DCT_간트차트_수정002.xlsx
+++ b/documents/drafts/DCT_간트차트_수정002.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="9936"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="18948" windowHeight="12336"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="프로젝트 플래너" sheetId="1" r:id="rId4"/>
@@ -33,50 +33,63 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
   <x:si>
+    <x:t>HeidiSQL 설치 및 
+HeidiSQL-MySQL 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Azure 클라우드 서버(리눅스OS)
+구축 및 네트워크 세팅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apache 웹서버 설치 및 
+XE 웹사이트제작 S/W 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자율주행차를 이용한 발열자 히트맵(가칭) - 한국직업능력교육원 안산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MobaXterm(원격 ssh 접속
+프로그램) 설치 및 클라우드 연동</x:t>
+  </x:si>
+  <x:si>
     <x:t>최보미</x:t>
   </x:si>
   <x:si>
+    <x:t>H/W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S/W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>담당자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>활동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김진성</x:t>
+  </x:si>
+  <x:si>
     <x:t>기타</x:t>
   </x:si>
   <x:si>
-    <x:t>H/W</x:t>
-  </x:si>
-  <x:si>
-    <x:t>담당자</x:t>
-  </x:si>
-  <x:si>
     <x:t>완료율</x:t>
   </x:si>
   <x:si>
-    <x:t>활동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김진성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>S/W</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차 외관 제작 및 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MySQL 데이터베이스 생성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>열감지카메라 화면-XE 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트 기획 및 
-문서작업</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카메라 지지대 제작 및 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XE를 이용한 웹사이트 구현</x:t>
+    <x:t>팀로고 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기간 계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기간
+3/28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학습환경 구축</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -100,7 +113,7 @@
           </x:rPr>
         </mc:Fallback>
       </mc:AlternateContent>
-      <x:t>실제(계획을 넘어서는</x:t>
+      <x:t>%</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -108,43 +121,75 @@
         <x:sz val="11"/>
         <x:color rgb="ff404040"/>
       </x:rPr>
-      <x:t>)</x:t>
+      <x:t xml:space="preserve"> </x:t>
     </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="Calibri"/>
+            <x:sz val="12"/>
+            <x:color rgb="ff404040"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="Calibri"/>
+            <x:sz val="12"/>
+            <x:color rgb="ff404040"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>완료</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>기간
+5/23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제 시작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세부활동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계획 시작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기간
+4/25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운영환경 구축</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기간
+6/13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제 기간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Python: 주행코드 구현 및 테스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디어 구상 및 
+서비스 모델 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Python: 학습코드 구현 및 테스트</x:t>
   </x:si>
   <x:si>
     <x:t>라즈비안 OS 설치 및
 네트워크 세팅</x:t>
   </x:si>
   <x:si>
-    <x:t>Python: 학습코드 구현 및 테스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디어 구상 및 
-서비스 모델 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Python: 주행코드 구현 및 테스트</x:t>
-  </x:si>
-  <x:si>
     <x:t>MCU(ATMEGA328P) 회로 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가상환경 세팅 - Python, OpenCV,
-Tensorflow, Keras 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grafana 시계열 메트릭데이터
-시각화도구 설치 및
-Grafana-MySQL 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주행화면-XE 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XE 웹사이트 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김진성, 김희준</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -209,47 +254,107 @@
     <x:t>커스텀 보드 제작</x:t>
   </x:si>
   <x:si>
+    <x:t>Grafana 시계열 메트릭데이터
+시각화도구 설치 및
+Grafana-MySQL 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가상환경 세팅 - Python, OpenCV,
+Tensorflow, Keras 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주행용 도로 제작 및
+주행테스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조원 : 김진성, 최보미, 김희준</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모터 제어 코드 구현 및 테스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MySQL 설치 및 DB 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모터드라이버(L293D) 회로 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트 팀명 및 
+로고 구상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포트폴리오 제작 &amp; 발표 준비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[K-digital] 클라우드 재난분석 사물인터넷 과정 프로젝트 - A조</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Python: Rpi-온습도센서-클라우드서버DB 연동 코드 작성 및 테스트 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>XE 웹사이트 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김진성, 김희준</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주행화면-XE 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간트 차트 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화면설계 및 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시연 영상 촬영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파츠리스트 제작</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve"> 기간 강조 표시:</x:t>
   </x:si>
   <x:si>
-    <x:t>시연 영상 촬영</x:t>
-  </x:si>
-  <x:si>
     <x:t>플로우 차트 제작</x:t>
   </x:si>
   <x:si>
-    <x:t>화면설계 및 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파츠리스트 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>간트 차트 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Azure 클라우드 서버(리눅스OS)
-구축 및 네트워크 세팅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HeidiSQL 설치 및 
-HeidiSQL-MySQL 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apache 웹서버 설치 및 
-XE 웹사이트제작 S/W 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Python: Rpi-온습도센서-클라우드서버DB 연동 코드 작성 및 테스트 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>[K-digital] 클라우드 재난분석 사물인터넷 과정 프로젝트 - A조</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자율주행차를 이용한 발열자 히트맵(가칭) - 한국직업능력교육원 안산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MobaXterm(원격 ssh 접속
-프로그램) 설치 및 클라우드 연동</x:t>
+    <x:t>Python: 열감지카메라 코드 작성 및 테스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grafana-XE 연동 및 
+시계열그래프 시각화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>형상관리 도구 세팅 
+- 깃 설치 &amp; 깃허브 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UART 통신 
+(라즈베리 파이 - MCU)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>라즈베리파이-MCU통신 코드
+구현 및 테스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XE를 이용한 웹사이트 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차 외관 제작 및 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>열감지카메라 화면-XE 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트 기획 및 
+문서작업</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MySQL 데이터베이스 생성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카메라 지지대 제작 및 수정</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -273,7 +378,7 @@
           </x:rPr>
         </mc:Fallback>
       </mc:AlternateContent>
-      <x:t>%</x:t>
+      <x:t>실제(계획을 넘어서는</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -281,113 +386,8 @@
         <x:sz val="11"/>
         <x:color rgb="ff404040"/>
       </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
+      <x:t>)</x:t>
     </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="Calibri"/>
-            <x:sz val="12"/>
-            <x:color rgb="ff404040"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="Calibri"/>
-            <x:sz val="12"/>
-            <x:color rgb="ff404040"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>완료</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>계획 시작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기간
-6/13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세부활동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>팀로고 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실제 시작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운영환경 구축</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기간
-4/25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기간
-5/23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기간
-3/28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학습환경 구축</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기간 계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실제 기간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Python: 열감지카메라 코드 작성 및 테스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grafana-XE 연동 및 
-시계열그래프 시각화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>라즈베리파이-MCU통신 코드
-구현 및 테스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UART 통신 
-(라즈베리 파이 - MCU)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>형상관리 도구 세팅 
-- 깃 설치 &amp; 깃허브 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주행용 도로 제작 및
-주행테스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조원 : 김진성, 최보미, 김희준</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트 팀명 및 
-로고 구상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모터 제어 코드 구현 및 테스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포트폴리오 제작 &amp; 발표 준비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모터드라이버(L293D) 회로 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MySQL 설치 및 DB 설계</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -807,7 +807,7 @@
       </mc:Fallback>
     </mc:AlternateContent>
   </x:fonts>
-  <x:fills count="36">
+  <x:fills count="37">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -1014,6 +1014,12 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="fff2cd96"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ff800080"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
@@ -1518,7 +1524,7 @@
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="75">
+  <x:cellXfs count="77">
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" hs:applyExtension="1">
@@ -2341,6 +2347,32 @@
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="11" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -3307,8 +3339,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:BP43"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <x:selection activeCell="B31" activeCellId="0" sqref="B31:B31"/>
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <x:selection activeCell="D13" activeCellId="0" sqref="D13:D13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="4.125" defaultRowHeight="30" customHeight="1"/>
@@ -3329,7 +3361,7 @@
   <x:sheetData>
     <x:row r="1" spans="2:8" ht="60" customHeight="1">
       <x:c r="B1" s="11" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C1" s="22"/>
       <x:c r="D1" s="10"/>
@@ -3340,7 +3372,7 @@
     </x:row>
     <x:row r="2" spans="2:8" ht="19.5" customHeight="1">
       <x:c r="B2" s="26" t="s">
-        <x:v>40</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="22"/>
       <x:c r="D2" s="10"/>
@@ -3352,7 +3384,7 @@
     <x:row r="3" spans="1:43" ht="21" customHeight="1">
       <x:c r="A3" s="2"/>
       <x:c r="B3" s="26" t="s">
-        <x:v>61</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C3" s="23"/>
       <x:c r="D3" s="18"/>
@@ -3360,31 +3392,31 @@
       <x:c r="F3" s="18"/>
       <x:c r="G3" s="18"/>
       <x:c r="H3" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I3" s="12">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K3" s="13"/>
       <x:c r="L3" s="65" t="s">
-        <x:v>53</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="M3" s="66"/>
       <x:c r="N3" s="67"/>
       <x:c r="O3" s="14"/>
       <x:c r="P3" s="65" t="s">
-        <x:v>47</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Q3" s="66"/>
       <x:c r="R3" s="67"/>
       <x:c r="S3" s="15"/>
       <x:c r="T3" s="62" t="s">
-        <x:v>42</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="U3" s="68"/>
       <x:c r="V3" s="16"/>
       <x:c r="W3" s="62" t="s">
-        <x:v>15</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="X3" s="63"/>
       <x:c r="Y3" s="63"/>
@@ -3393,7 +3425,7 @@
       <x:c r="AB3" s="68"/>
       <x:c r="AC3" s="17"/>
       <x:c r="AD3" s="62" t="s">
-        <x:v>26</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="AE3" s="63"/>
       <x:c r="AF3" s="63"/>
@@ -3405,48 +3437,48 @@
     </x:row>
     <x:row r="4" spans="1:67" s="9" customFormat="1" ht="39.950000000000003" customHeight="1">
       <x:c r="A4" s="69" t="s">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B4" s="58" t="s">
-        <x:v>45</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C4" s="58" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D4" s="60" t="s">
-        <x:v>43</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E4" s="60" t="s">
-        <x:v>53</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F4" s="60" t="s">
-        <x:v>47</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G4" s="60" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H4" s="64" t="s">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I4" s="46" t="s">
-        <x:v>51</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J4" s="47"/>
       <x:c r="K4" s="48"/>
       <x:c r="L4" s="48"/>
       <x:c r="M4" s="46" t="s">
-        <x:v>49</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="N4" s="48"/>
       <x:c r="O4" s="48"/>
       <x:c r="P4" s="48"/>
       <x:c r="Q4" s="46" t="s">
-        <x:v>50</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="R4" s="48"/>
       <x:c r="S4" s="48"/>
       <x:c r="T4" s="46" t="s">
-        <x:v>44</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="U4" s="46"/>
       <x:c r="V4" s="50"/>
@@ -3688,13 +3720,13 @@
     </x:row>
     <x:row r="6" spans="1:8" ht="38.450000000000003">
       <x:c r="A6" s="71" t="s">
-        <x:v>12</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B6" s="28" t="s">
-        <x:v>18</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C6" s="29" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D6" s="31">
         <x:v>1</x:v>
@@ -3715,10 +3747,10 @@
     <x:row r="7" spans="1:8" ht="38.450000000000003">
       <x:c r="A7" s="72"/>
       <x:c r="B7" s="35" t="s">
-        <x:v>62</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C7" s="29" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D7" s="31">
         <x:v>2</x:v>
@@ -3739,10 +3771,10 @@
     <x:row r="8" spans="1:8" customHeight="1">
       <x:c r="A8" s="72"/>
       <x:c r="B8" s="29" t="s">
-        <x:v>33</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C8" s="29" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D8" s="31">
         <x:v>3</x:v>
@@ -3760,37 +3792,39 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:8" customHeight="1">
+    <x:row r="9" spans="1:18" customHeight="1">
       <x:c r="A9" s="72"/>
       <x:c r="B9" s="29" t="s">
-        <x:v>31</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C9" s="29" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D9" s="31">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E9" s="31">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F9" s="31">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G9" s="31">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H9" s="32">
         <x:v>1</x:v>
       </x:c>
+      <x:c r="L9" s="76"/>
+      <x:c r="R9" s="75"/>
     </x:row>
     <x:row r="10" spans="1:8" customHeight="1">
       <x:c r="A10" s="73"/>
       <x:c r="B10" s="30" t="s">
-        <x:v>34</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C10" s="30" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="33">
         <x:v>5</x:v>
@@ -3810,13 +3844,13 @@
     </x:row>
     <x:row r="11" spans="1:8" ht="38.450000000000003" customHeight="1">
       <x:c r="A11" s="74" t="s">
-        <x:v>48</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B11" s="36" t="s">
-        <x:v>16</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C11" s="24" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D11" s="19">
         <x:v>4</x:v>
@@ -3837,10 +3871,10 @@
     <x:row r="12" spans="1:8" ht="38.450000000000003" customHeight="1">
       <x:c r="A12" s="72"/>
       <x:c r="B12" s="37" t="s">
-        <x:v>59</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C12" s="24" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D12" s="19">
         <x:v>4</x:v>
@@ -3861,10 +3895,10 @@
     <x:row r="13" spans="1:8" ht="38.450000000000003">
       <x:c r="A13" s="72"/>
       <x:c r="B13" s="35" t="s">
-        <x:v>35</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C13" s="24" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D13" s="19">
         <x:v>5</x:v>
@@ -3885,10 +3919,10 @@
     <x:row r="14" spans="1:8" ht="38.450000000000003">
       <x:c r="A14" s="72"/>
       <x:c r="B14" s="37" t="s">
-        <x:v>41</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C14" s="24" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D14" s="19">
         <x:v>5</x:v>
@@ -3909,10 +3943,10 @@
     <x:row r="15" spans="1:8" customHeight="1">
       <x:c r="A15" s="72"/>
       <x:c r="B15" s="24" t="s">
-        <x:v>66</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C15" s="24" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D15" s="19">
         <x:v>5</x:v>
@@ -3933,10 +3967,10 @@
     <x:row r="16" spans="1:8" ht="38.450000000000003">
       <x:c r="A16" s="72"/>
       <x:c r="B16" s="27" t="s">
-        <x:v>36</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C16" s="24" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D16" s="19">
         <x:v>6</x:v>
@@ -3957,10 +3991,10 @@
     <x:row r="17" spans="1:8" customHeight="1">
       <x:c r="A17" s="72"/>
       <x:c r="B17" s="24" t="s">
-        <x:v>10</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C17" s="24" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D17" s="20">
         <x:v>6</x:v>
@@ -3981,10 +4015,10 @@
     <x:row r="18" spans="1:8" ht="57.649999999999999">
       <x:c r="A18" s="73"/>
       <x:c r="B18" s="39" t="s">
-        <x:v>22</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C18" s="30" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D18" s="33">
         <x:v>9</x:v>
@@ -4004,13 +4038,13 @@
     </x:row>
     <x:row r="19" spans="1:28" s="2" customFormat="1" ht="57.649999999999999">
       <x:c r="A19" s="45" t="s">
-        <x:v>52</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B19" s="30" t="s">
-        <x:v>21</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C19" s="30" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D19" s="33">
         <x:v>14</x:v>
@@ -4050,13 +4084,13 @@
     </x:row>
     <x:row r="20" spans="1:8" ht="38.450000000000003" customHeight="1">
       <x:c r="A20" s="74" t="s">
-        <x:v>32</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B20" s="27" t="s">
-        <x:v>37</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C20" s="24" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D20" s="19">
         <x:v>9</x:v>
@@ -4077,10 +4111,10 @@
     <x:row r="21" spans="1:8" customHeight="1">
       <x:c r="A21" s="72"/>
       <x:c r="B21" s="24" t="s">
-        <x:v>24</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C21" s="24" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D21" s="19">
         <x:v>9</x:v>
@@ -4101,10 +4135,10 @@
     <x:row r="22" spans="1:8" customHeight="1">
       <x:c r="A22" s="72"/>
       <x:c r="B22" s="24" t="s">
-        <x:v>14</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C22" s="24" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D22" s="19">
         <x:v>9</x:v>
@@ -4128,7 +4162,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="C23" s="24" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D23" s="19">
         <x:v>10</x:v>
@@ -4149,10 +4183,10 @@
     <x:row r="24" spans="1:8" customHeight="1">
       <x:c r="A24" s="72"/>
       <x:c r="B24" s="24" t="s">
-        <x:v>11</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C24" s="24" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D24" s="19">
         <x:v>11</x:v>
@@ -4173,10 +4207,10 @@
     <x:row r="25" spans="1:8" customHeight="1">
       <x:c r="A25" s="72"/>
       <x:c r="B25" s="24" t="s">
-        <x:v>23</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C25" s="24" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D25" s="19">
         <x:v>12</x:v>
@@ -4197,10 +4231,10 @@
     <x:row r="26" spans="1:8" customHeight="1">
       <x:c r="A26" s="73"/>
       <x:c r="B26" s="30" t="s">
-        <x:v>27</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C26" s="30" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D26" s="33">
         <x:v>12</x:v>
@@ -4220,13 +4254,13 @@
     </x:row>
     <x:row r="27" spans="1:8" customHeight="1">
       <x:c r="A27" s="74" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B27" s="29" t="s">
-        <x:v>20</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C27" s="29" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D27" s="31">
         <x:v>14</x:v>
@@ -4247,10 +4281,10 @@
     <x:row r="28" spans="1:8" customHeight="1">
       <x:c r="A28" s="72"/>
       <x:c r="B28" s="29" t="s">
-        <x:v>65</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C28" s="29" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D28" s="31">
         <x:v>14</x:v>
@@ -4274,7 +4308,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="C29" s="29" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D29" s="31">
         <x:v>14</x:v>
@@ -4295,10 +4329,10 @@
     <x:row r="30" spans="1:8" customHeight="1">
       <x:c r="A30" s="72"/>
       <x:c r="B30" s="29" t="s">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C30" s="29" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D30" s="31">
         <x:v>15</x:v>
@@ -4319,10 +4353,10 @@
     <x:row r="31" spans="1:8" customHeight="1">
       <x:c r="A31" s="72"/>
       <x:c r="B31" s="29" t="s">
-        <x:v>13</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C31" s="29" t="s">
-        <x:v>25</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D31" s="31">
         <x:v>15</x:v>
@@ -4343,10 +4377,10 @@
     <x:row r="32" spans="1:8" customHeight="1">
       <x:c r="A32" s="72"/>
       <x:c r="B32" s="29" t="s">
-        <x:v>9</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C32" s="29" t="s">
-        <x:v>25</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D32" s="31">
         <x:v>15</x:v>
@@ -4367,10 +4401,10 @@
     <x:row r="33" spans="1:28" s="2" customFormat="1" ht="38.450000000000003">
       <x:c r="A33" s="73"/>
       <x:c r="B33" s="40" t="s">
-        <x:v>60</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C33" s="30" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D33" s="33">
         <x:v>14</x:v>
@@ -4413,10 +4447,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B34" s="24" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C34" s="24" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D34" s="19">
         <x:v>14</x:v>
@@ -4460,7 +4494,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="C35" s="24" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D35" s="19">
         <x:v>14</x:v>
@@ -4501,10 +4535,10 @@
     <x:row r="36" spans="1:28" s="2" customFormat="1" customHeight="1">
       <x:c r="A36" s="72"/>
       <x:c r="B36" s="24" t="s">
-        <x:v>17</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C36" s="24" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D36" s="19">
         <x:v>15</x:v>
@@ -4545,10 +4579,10 @@
     <x:row r="37" spans="1:28" s="2" customFormat="1" customHeight="1">
       <x:c r="A37" s="72"/>
       <x:c r="B37" s="24" t="s">
-        <x:v>19</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C37" s="24" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D37" s="19">
         <x:v>15</x:v>
@@ -4589,10 +4623,10 @@
     <x:row r="38" spans="1:28" s="2" customFormat="1" customHeight="1">
       <x:c r="A38" s="72"/>
       <x:c r="B38" s="27" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C38" s="24" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D38" s="19">
         <x:v>15</x:v>
@@ -4633,10 +4667,10 @@
     <x:row r="39" spans="1:42" customHeight="1">
       <x:c r="A39" s="73"/>
       <x:c r="B39" s="42" t="s">
-        <x:v>63</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C39" s="30" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D39" s="33">
         <x:v>15</x:v>
@@ -4670,13 +4704,13 @@
     </x:row>
     <x:row r="40" spans="1:67" customHeight="1">
       <x:c r="A40" s="74" t="s">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B40" s="36" t="s">
-        <x:v>30</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C40" s="36" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D40" s="52">
         <x:v>15</x:v>
@@ -4756,10 +4790,10 @@
     <x:row r="41" spans="1:67" customHeight="1">
       <x:c r="A41" s="72"/>
       <x:c r="B41" s="35" t="s">
-        <x:v>46</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C41" s="35" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D41" s="54">
         <x:v>15</x:v>
@@ -4839,10 +4873,10 @@
     <x:row r="42" spans="1:67" s="1" customFormat="1" customHeight="1">
       <x:c r="A42" s="73"/>
       <x:c r="B42" s="51" t="s">
-        <x:v>64</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C42" s="51" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D42" s="56">
         <x:v>15</x:v>
